--- a/biology/Zoologie/Anoplodera_sexguttata/Anoplodera_sexguttata.xlsx
+++ b/biology/Zoologie/Anoplodera_sexguttata/Anoplodera_sexguttata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anoplodera sexguttata, le Lepture à six taches, est une espèce d'insectes de l'ordre des coléoptères, de la famille des Cerambycidae et du genre Anoplodera décrite par l'entomologiste danois Johan Christian Fabricius en 1775.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Algérie, Allemagne, Angleterre, Autriche, Belgique, Biélorussie, Bosnie-Herzégovine, Bulgarie, Croatie, Danemark, Espagne, Estonie, Finlande, France, Grèce, Hongrie, Irlande, Italie, Lettonie, Lituanie, Luxembourg, Macédoine, Moldavie, Norvège, Pays-Bas, Pologne, Roumanie, Russie d'Europe, Slovaquie, Slovénie, Suède, Suisse, Tchéquie, Ukraine[1]. 
-En France l'espèce considérée comme étant "Assez rare"[2] est répartie sur l'ensemble du territoire métropolitain[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Algérie, Allemagne, Angleterre, Autriche, Belgique, Biélorussie, Bosnie-Herzégovine, Bulgarie, Croatie, Danemark, Espagne, Estonie, Finlande, France, Grèce, Hongrie, Irlande, Italie, Lettonie, Lituanie, Luxembourg, Macédoine, Moldavie, Norvège, Pays-Bas, Pologne, Roumanie, Russie d'Europe, Slovaquie, Slovénie, Suède, Suisse, Tchéquie, Ukraine. 
+En France l'espèce considérée comme étant "Assez rare" est répartie sur l'ensemble du territoire métropolitain.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (26 août 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (26 août 2014) :
 Anoplodera sexguttata atrata Schilsky
 Anoplodera sexguttata biguttata Mulsant, 1839
 Anoplodera sexguttata excalamationis (Fabricius, 1792)
@@ -578,9 +594,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (26 août 2014)[1] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (26 août 2014) : 
 Anoplodera sexguttata atrata Schilsky, 1889
 Anoplodera sexguttata biguttata Mulsant, 1839
 Anoplodera sexguttata biguttata Pic, 1898
